--- a/Marlin_excel/探點誤差.xlsx
+++ b/Marlin_excel/探點誤差.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>X</t>
   </si>
@@ -41,20 +41,12 @@
     <t>Diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,13 +76,6 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -109,7 +94,216 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -118,6 +312,47 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -125,324 +360,13 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -451,32 +375,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -499,56 +418,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +549,7 @@
             <c:v>探點座標</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -672,17 +570,14 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$G$27:$G$44</c:f>
+              <c:f>工作表1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>209.83701400000001</c:v>
+                  <c:v>209.83700999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>300</c:v>
@@ -697,10 +592,10 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>670.016299</c:v>
+                  <c:v>670.16299000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.83701400000001</c:v>
+                  <c:v>209.83700999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>300</c:v>
@@ -718,7 +613,7 @@
                   <c:v>670.16299000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209.83701400000001</c:v>
+                  <c:v>209.83700999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>300</c:v>
@@ -740,7 +635,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$H$27:$H$44</c:f>
+              <c:f>工作表1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -807,7 +702,7 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>X方向</c:v>
+            <c:v>Y方向</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -831,113 +726,92 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$15:$A$29</c:f>
+              <c:f>工作表1!$A$21:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>254.91851</c:v>
+                  <c:v>209.83700999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>550</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>635.08150000000001</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>254.91851</c:v>
+                  <c:v>670.16299000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>209.83700999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>450</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>550</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>635.08150000000001</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>254.91851</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>635.08150000000001</c:v>
+                  <c:v>670.16299000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$B$15:$B$29</c:f>
+              <c:f>工作表1!$B$21:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>615</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>615</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>615</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>615</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>615</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>715</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>715</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>715</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>715</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>715</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>815</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>815</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>815</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>815</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>815</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,10 +822,10 @@
           <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Y方向</c:v>
+            <c:v>X方向</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -972,95 +846,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$2:$A$13</c:f>
+              <c:f>工作表1!$A$34:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>209.83700999999999</c:v>
+                  <c:v>254.91851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600</c:v>
+                  <c:v>635.08150000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>670.16299000000004</c:v>
+                  <c:v>254.91851</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.83700999999999</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500</c:v>
+                  <c:v>635.08150000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>600</c:v>
+                  <c:v>254.91851</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>670.16299000000004</c:v>
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>635.08150000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$13</c:f>
+              <c:f>工作表1!$B$34:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>665</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>665</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>665</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>665</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>665</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>665</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>765</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>765</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>765</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>765</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>765</c:v>
+                  <c:v>815</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>765</c:v>
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,12 +984,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$31:$A$40</c:f>
+              <c:f>工作表1!$A$50:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1139,7 +1025,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$B$31:$B$40</c:f>
+              <c:f>工作表1!$B$50:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1206,12 +1092,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$A$42:$A$51</c:f>
+              <c:f>工作表1!$A$61:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1250,7 +1133,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$B$42:$B$51</c:f>
+              <c:f>工作表1!$B$61:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1292,20 +1175,20 @@
         <c:dLbls>
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2075764992"/>
-        <c:axId val="-2075766624"/>
+        <c:axId val="-231723584"/>
+        <c:axId val="-231721952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2075764992"/>
+        <c:axId val="-231723584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="730"/>
+          <c:max val="700"/>
           <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1421,12 +1304,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075766624"/>
+        <c:crossAx val="-231721952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2075766624"/>
+        <c:axId val="-231721952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="600"/>
@@ -1544,7 +1427,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075764992"/>
+        <c:crossAx val="-231723584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2484,1019 +2367,1278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="10.77734375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="11">
         <v>209.83700999999999</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="12">
+        <v>615</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>300</v>
+      </c>
+      <c r="B3" s="2">
+        <v>615</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E3" s="18">
+        <f t="shared" ref="E3:E19" si="0">C3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>400</v>
+      </c>
+      <c r="B4" s="2">
+        <v>615</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>500</v>
+      </c>
+      <c r="B5" s="2">
+        <v>615</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>600</v>
+      </c>
+      <c r="B6" s="2">
+        <v>615</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>670.16299000000004</v>
+      </c>
+      <c r="B7" s="2">
+        <v>615</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>209.83700999999999</v>
+      </c>
+      <c r="B8" s="2">
+        <v>715</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>300</v>
+      </c>
+      <c r="B9" s="2">
+        <v>715</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>400</v>
+      </c>
+      <c r="B10" s="2">
+        <v>715</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>500</v>
+      </c>
+      <c r="B11" s="2">
+        <v>715</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>600</v>
+      </c>
+      <c r="B12" s="2">
+        <v>715</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>670.16299000000004</v>
+      </c>
+      <c r="B13" s="2">
+        <v>715</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>209.83700999999999</v>
+      </c>
+      <c r="B14" s="2">
+        <v>815</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>300</v>
+      </c>
+      <c r="B15" s="2">
+        <v>815</v>
+      </c>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>400</v>
+      </c>
+      <c r="B16" s="2">
+        <v>815</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>500</v>
+      </c>
+      <c r="B17" s="2">
+        <v>815</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>600</v>
+      </c>
+      <c r="B18" s="2">
+        <v>815</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>670.16299000000004</v>
+      </c>
+      <c r="B19" s="5">
+        <v>815</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>209.83700999999999</v>
+      </c>
+      <c r="B21" s="9">
         <v>665</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C21" s="10">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D21" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E2" s="25">
-        <f>C2-D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="E21" s="20">
+        <f t="shared" ref="E21:E32" si="1">C21-D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>300</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B22" s="2">
         <v>665</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C22" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D22" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E3" s="20">
-        <f t="shared" ref="E3:E13" si="0">C3-D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="E22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>400</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B23" s="2">
         <v>665</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C23" s="6">
         <v>0.03</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D23" s="3">
         <v>0.03</v>
       </c>
-      <c r="E4" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="E23" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>500</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B24" s="2">
         <v>665</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C24" s="6">
         <v>0.02</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D24" s="3">
         <v>0.02</v>
       </c>
-      <c r="E5" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="E24" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>600</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B25" s="2">
         <v>665</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C25" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D25" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E6" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="E25" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>670.16299000000004</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B26" s="2">
         <v>665</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C26" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D26" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E7" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="E26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>209.83700999999999</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B27" s="2">
         <v>765</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C27" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D27" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E8" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="E27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>300</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B28" s="2">
         <v>765</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C28" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D28" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E9" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="E28" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>400</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B29" s="2">
         <v>765</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C29" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D29" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="E29" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>500</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B30" s="2">
         <v>765</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C30" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D30" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="E30" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>600</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B31" s="2">
         <v>765</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C31" s="6">
         <v>0.05</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D31" s="3">
         <v>0.05</v>
       </c>
-      <c r="E12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="E31" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
         <v>670.16299000000004</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B32" s="5">
         <v>765</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C32" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D32" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="E32" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
         <v>254.91851</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B34" s="9">
         <v>615</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C34" s="10">
         <v>0.04</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D34" s="8">
         <v>0.04</v>
       </c>
-      <c r="E15" s="20">
-        <f t="shared" ref="E15:E51" si="1">C15-D15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="E34" s="20">
+        <f>C34-D34</f>
+        <v>0</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>350</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B35" s="2">
         <v>615</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C35" s="6">
         <v>5.5E-2</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D35" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="E16" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="E35" s="18">
+        <f t="shared" ref="E35:E48" si="2">C35-D35</f>
+        <v>0</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>450</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B36" s="2">
         <v>615</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C36" s="6">
         <v>0.02</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D36" s="3">
         <v>0.02</v>
       </c>
-      <c r="E17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="E36" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>550</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B37" s="2">
         <v>615</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C37" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D37" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E18" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="E37" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>635.08150000000001</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B38" s="2">
         <v>615</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C38" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D38" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E19" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="E38" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>254.91851</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B39" s="2">
         <v>715</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C39" s="6">
         <v>0.08</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D39" s="3">
         <v>0.08</v>
       </c>
-      <c r="E20" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="E39" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>350</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B40" s="2">
         <v>715</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C40" s="6">
         <v>0.05</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D40" s="3">
         <v>0.05</v>
       </c>
-      <c r="E21" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="E40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>450</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B41" s="2">
         <v>715</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C41" s="6">
         <v>0.03</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D41" s="3">
         <v>0.03</v>
       </c>
-      <c r="E22" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="E41" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>550</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B42" s="2">
         <v>715</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C42" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D42" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E23" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="E42" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <v>635.08150000000001</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B43" s="2">
         <v>715</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C43" s="6">
         <v>0.05</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D43" s="3">
         <v>0.05</v>
       </c>
-      <c r="E24" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
+      <c r="E43" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>254.91851</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B44" s="2">
         <v>815</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C44" s="6">
         <v>0.04</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D44" s="3">
         <v>0.04</v>
       </c>
-      <c r="E25" s="20">
-        <f>C25-D25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="11">
+      <c r="E44" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>350</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B45" s="2">
         <v>815</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C45" s="6">
         <v>0.04</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D45" s="3">
         <v>0.04</v>
       </c>
-      <c r="E26" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="E45" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <v>450</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B46" s="2">
         <v>815</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C46" s="6">
         <v>0.01</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D46" s="3">
         <v>0.01</v>
       </c>
-      <c r="E27" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>209.83701400000001</v>
-      </c>
-      <c r="H27" s="5">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="E46" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>550</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B47" s="2">
         <v>815</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C47" s="6">
         <v>0.03</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D47" s="3">
         <v>0.03</v>
       </c>
-      <c r="E28" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>300</v>
-      </c>
-      <c r="H28" s="7">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
+      <c r="E47" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
         <v>635.08150000000001</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B48" s="5">
         <v>815</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C48" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D48" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E29" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>400</v>
-      </c>
-      <c r="H29" s="7">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="G30" s="6">
-        <v>500</v>
-      </c>
-      <c r="H30" s="7">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="E48" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
         <v>239.89134000000001</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B50" s="9">
         <v>648.33333000000005</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C50" s="10">
         <v>5.3330000000000002E-2</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D50" s="8">
         <v>5.3330000000000002E-2</v>
       </c>
-      <c r="E31" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>600</v>
-      </c>
-      <c r="H31" s="7">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="E50" s="20">
+        <f t="shared" ref="E50:E59" si="3">C50-D50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>333.33332999999999</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B51" s="2">
         <v>648.33333000000005</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C51" s="6">
         <v>6.3329999999999997E-2</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D51" s="3">
         <v>6.3329999999999997E-2</v>
       </c>
-      <c r="E32" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
-        <v>670.016299</v>
-      </c>
-      <c r="H32" s="7">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="E51" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>433.33332999999999</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B52" s="2">
         <v>648.33333000000005</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C52" s="6">
         <v>0.02</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D52" s="3">
         <v>0.02</v>
       </c>
-      <c r="E33" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>209.83701400000001</v>
-      </c>
-      <c r="H33" s="7">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="E52" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>533.33333000000005</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B53" s="2">
         <v>648.33333000000005</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C53" s="6">
         <v>4.333E-2</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D53" s="3">
         <v>4.333E-2</v>
       </c>
-      <c r="E34" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>300</v>
-      </c>
-      <c r="H34" s="7">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="E53" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>623.38765999999998</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B54" s="2">
         <v>648.33333000000005</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C54" s="6">
         <v>0.06</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D54" s="3">
         <v>0.06</v>
       </c>
-      <c r="E35" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>400</v>
-      </c>
-      <c r="H35" s="7">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="E54" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>239.89134000000001</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B55" s="2">
         <v>748.33333000000005</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C55" s="6">
         <v>5.6669999999999998E-2</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D55" s="3">
         <v>5.6669999999999998E-2</v>
       </c>
-      <c r="E36" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>500</v>
-      </c>
-      <c r="H36" s="7">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="E55" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>333.33332999999999</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B56" s="2">
         <v>748.33333000000005</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C56" s="6">
         <v>5.6669999999999998E-2</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D56" s="3">
         <v>5.6669999999999998E-2</v>
       </c>
-      <c r="E37" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>600</v>
-      </c>
-      <c r="H37" s="7">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="E56" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>433.33332999999999</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B57" s="2">
         <v>748.33333000000005</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C57" s="6">
         <v>2.333E-2</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D57" s="3">
         <v>2.333E-2</v>
       </c>
-      <c r="E38" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <v>670.16299000000004</v>
-      </c>
-      <c r="H38" s="7">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="E57" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>533.33333000000005</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B58" s="2">
         <v>748.33333000000005</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C58" s="6">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D58" s="3">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="E39" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
-        <v>209.83701400000001</v>
-      </c>
-      <c r="H39" s="7">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12">
+      <c r="E58" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
         <v>623.38765999999998</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B59" s="5">
         <v>748.33333000000005</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C59" s="7">
         <v>0.05</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D59" s="4">
         <v>0.05</v>
       </c>
-      <c r="E40" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <v>300</v>
-      </c>
-      <c r="H40" s="7">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <v>400</v>
-      </c>
-      <c r="H41" s="7">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+      <c r="E59" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
         <v>269.94567000000001</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B61" s="9">
         <v>681.66666999999995</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C61" s="10">
         <v>7.6670000000000002E-2</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D61" s="8">
         <v>7.6670000000000002E-2</v>
       </c>
-      <c r="E42" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
-        <v>500</v>
-      </c>
-      <c r="H42" s="7">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="E61" s="20">
+        <f t="shared" ref="E61:E70" si="4">C61-D61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
         <v>366.66667000000001</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B62" s="2">
         <v>681.66666999999995</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C62" s="6">
         <v>4.6670000000000003E-2</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D62" s="3">
         <v>4.6670000000000003E-2</v>
       </c>
-      <c r="E43" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="6">
-        <v>600</v>
-      </c>
-      <c r="H43" s="7">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11">
+      <c r="E62" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
         <v>466.66667000000001</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B63" s="2">
         <v>681.66666999999995</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C63" s="6">
         <v>0.02</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D63" s="3">
         <v>0.02</v>
       </c>
-      <c r="E44" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>670.16299000000004</v>
-      </c>
-      <c r="H44" s="9">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="E63" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
         <v>566.66666999999995</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B64" s="2">
         <v>681.66666999999995</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C64" s="6">
         <v>0.06</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D64" s="3">
         <v>0.06</v>
       </c>
-      <c r="E45" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="E64" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <v>646.77533000000005</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B65" s="2">
         <v>681.66666999999995</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C65" s="6">
         <v>4.6670000000000003E-2</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D65" s="3">
         <v>4.6670000000000003E-2</v>
       </c>
-      <c r="E46" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="E65" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
         <v>269.94567000000001</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B66" s="2">
         <v>781.66666999999995</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C66" s="6">
         <v>5.3330000000000002E-2</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D66" s="3">
         <v>5.3330000000000002E-2</v>
       </c>
-      <c r="E47" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="E66" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
         <v>366.66667000000001</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B67" s="2">
         <v>781.66666999999995</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C67" s="6">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D67" s="3">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="E48" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="E67" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
         <v>466.66667000000001</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B68" s="2">
         <v>781.66666999999995</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C68" s="6">
         <v>0.02</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D68" s="3">
         <v>0.02</v>
       </c>
-      <c r="E49" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="E68" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>566.66666999999995</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B69" s="2">
         <v>781.66666999999995</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C69" s="6">
         <v>3.6670000000000001E-2</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D69" s="3">
         <v>3.6670000000000001E-2</v>
       </c>
-      <c r="E50" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12">
+      <c r="E69" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
         <v>646.77533000000005</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B70" s="5">
         <v>781.66666999999995</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C70" s="7">
         <v>0.04</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D70" s="4">
         <v>0.04</v>
       </c>
-      <c r="E51" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E70" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
